--- a/login_senha.xlsx
+++ b/login_senha.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Área de Trabalho\Painel notas - Copia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E46626-C7D9-46B8-BB49-0E1482CE8B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BCE818-2B4A-41A4-8FA5-E3A87052285A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/login_senha.xlsx
+++ b/login_senha.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Área de Trabalho\Painel notas - Copia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BCE818-2B4A-41A4-8FA5-E3A87052285A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A464AE3E-03AB-4A40-95ED-A324A231A390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="178">
   <si>
     <t>CPF</t>
   </si>
@@ -551,6 +551,12 @@
   </si>
   <si>
     <t>ESCOLA ESTADUAL PROFESSORA DIVA GOMES DA SILVEIRA COSTA</t>
+  </si>
+  <si>
+    <t>FUNDAÇÃO GETULIO VARGAS</t>
+  </si>
+  <si>
+    <t>123.456.789-10</t>
   </si>
 </sst>
 </file>
@@ -908,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1994,21 +2000,21 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" t="s">
+        <v>177</v>
+      </c>
+      <c r="D98">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
         <v>118</v>
       </c>
-      <c r="C98">
+      <c r="C99">
         <v>17021502</v>
-      </c>
-      <c r="D98">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C99">
-        <v>17021685</v>
       </c>
       <c r="D99">
         <v>123456</v>
@@ -2016,10 +2022,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C100">
-        <v>17021553</v>
+        <v>17021685</v>
       </c>
       <c r="D100">
         <v>123456</v>
@@ -2027,10 +2033,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C101">
-        <v>17052351</v>
+        <v>17021553</v>
       </c>
       <c r="D101">
         <v>123456</v>
@@ -2038,10 +2044,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C102">
-        <v>17021243</v>
+        <v>17052351</v>
       </c>
       <c r="D102">
         <v>123456</v>
@@ -2049,10 +2055,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C103">
-        <v>17023181</v>
+        <v>17021243</v>
       </c>
       <c r="D103">
         <v>123456</v>
@@ -2060,10 +2066,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C104">
-        <v>17048826</v>
+        <v>17023181</v>
       </c>
       <c r="D104">
         <v>123456</v>
@@ -2071,10 +2077,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C105">
-        <v>17020336</v>
+        <v>17048826</v>
       </c>
       <c r="D105">
         <v>123456</v>
@@ -2082,10 +2088,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C106">
-        <v>17018382</v>
+        <v>17020336</v>
       </c>
       <c r="D106">
         <v>123456</v>
@@ -2093,10 +2099,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C107">
-        <v>17021251</v>
+        <v>17018382</v>
       </c>
       <c r="D107">
         <v>123456</v>
@@ -2104,10 +2110,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C108">
-        <v>17020590</v>
+        <v>17021251</v>
       </c>
       <c r="D108">
         <v>123456</v>
@@ -2115,10 +2121,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C109">
-        <v>17052963</v>
+        <v>17020590</v>
       </c>
       <c r="D109">
         <v>123456</v>
@@ -2126,10 +2132,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C110">
-        <v>17022819</v>
+        <v>17052963</v>
       </c>
       <c r="D110">
         <v>123456</v>
@@ -2137,10 +2143,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C111">
-        <v>17017912</v>
+        <v>17022819</v>
       </c>
       <c r="D111">
         <v>123456</v>
@@ -2148,10 +2154,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C112">
-        <v>17055857</v>
+        <v>17017912</v>
       </c>
       <c r="D112">
         <v>123456</v>
@@ -2159,10 +2165,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C113">
-        <v>17021561</v>
+        <v>17055857</v>
       </c>
       <c r="D113">
         <v>123456</v>
@@ -2170,10 +2176,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C114">
-        <v>17017165</v>
+        <v>17021561</v>
       </c>
       <c r="D114">
         <v>123456</v>
@@ -2181,10 +2187,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C115">
-        <v>17020140</v>
+        <v>17017165</v>
       </c>
       <c r="D115">
         <v>123456</v>
@@ -2192,10 +2198,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="C116">
-        <v>17023319</v>
+        <v>17020140</v>
       </c>
       <c r="D116">
         <v>123456</v>
@@ -2203,10 +2209,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="C117">
-        <v>17040051</v>
+        <v>17023319</v>
       </c>
       <c r="D117">
         <v>123456</v>
@@ -2214,10 +2220,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C118">
-        <v>17021596</v>
+        <v>17040051</v>
       </c>
       <c r="D118">
         <v>123456</v>
@@ -2225,10 +2231,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C119">
-        <v>17022320</v>
+        <v>17021596</v>
       </c>
       <c r="D119">
         <v>123456</v>
@@ -2236,10 +2242,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C120">
-        <v>17036917</v>
+        <v>17022320</v>
       </c>
       <c r="D120">
         <v>123456</v>
@@ -2247,10 +2253,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C121">
-        <v>17021146</v>
+        <v>17036917</v>
       </c>
       <c r="D121">
         <v>123456</v>
@@ -2258,10 +2264,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C122">
-        <v>17018390</v>
+        <v>17021146</v>
       </c>
       <c r="D122">
         <v>123456</v>
@@ -2269,10 +2275,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C123">
-        <v>17020581</v>
+        <v>17018390</v>
       </c>
       <c r="D123">
         <v>123456</v>
@@ -2280,10 +2286,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C124">
-        <v>17022312</v>
+        <v>17020581</v>
       </c>
       <c r="D124">
         <v>123456</v>
@@ -2291,10 +2297,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C125">
-        <v>17021774</v>
+        <v>17022312</v>
       </c>
       <c r="D125">
         <v>123456</v>
@@ -2302,10 +2308,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C126">
-        <v>17022339</v>
+        <v>17021774</v>
       </c>
       <c r="D126">
         <v>123456</v>
@@ -2313,10 +2319,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C127">
-        <v>17040035</v>
+        <v>17022339</v>
       </c>
       <c r="D127">
         <v>123456</v>
@@ -2324,10 +2330,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C128">
-        <v>17022860</v>
+        <v>17040035</v>
       </c>
       <c r="D128">
         <v>123456</v>
@@ -2335,10 +2341,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C129">
-        <v>17020611</v>
+        <v>17022860</v>
       </c>
       <c r="D129">
         <v>123456</v>
@@ -2346,10 +2352,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C130">
-        <v>17021588</v>
+        <v>17020611</v>
       </c>
       <c r="D130">
         <v>123456</v>
@@ -2357,10 +2363,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C131">
-        <v>17038359</v>
+        <v>17021588</v>
       </c>
       <c r="D131">
         <v>123456</v>
@@ -2368,10 +2374,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C132">
-        <v>17018404</v>
+        <v>17038359</v>
       </c>
       <c r="D132">
         <v>123456</v>
@@ -2379,10 +2385,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C133">
-        <v>17021731</v>
+        <v>17018404</v>
       </c>
       <c r="D133">
         <v>123456</v>
@@ -2390,10 +2396,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C134">
-        <v>17020360</v>
+        <v>17021731</v>
       </c>
       <c r="D134">
         <v>123456</v>
@@ -2401,10 +2407,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C135">
-        <v>17040841</v>
+        <v>17020360</v>
       </c>
       <c r="D135">
         <v>123456</v>
@@ -2412,10 +2418,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C136">
-        <v>17020158</v>
+        <v>17040841</v>
       </c>
       <c r="D136">
         <v>123456</v>
@@ -2423,10 +2429,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C137">
-        <v>17053315</v>
+        <v>17020158</v>
       </c>
       <c r="D137">
         <v>123456</v>
@@ -2434,10 +2440,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C138">
-        <v>17021600</v>
+        <v>17053315</v>
       </c>
       <c r="D138">
         <v>123456</v>
@@ -2445,10 +2451,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C139">
-        <v>17017203</v>
+        <v>17021600</v>
       </c>
       <c r="D139">
         <v>123456</v>
@@ -2456,10 +2462,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C140">
-        <v>17021707</v>
+        <v>17017203</v>
       </c>
       <c r="D140">
         <v>123456</v>
@@ -2467,10 +2473,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C141">
-        <v>17021804</v>
+        <v>17021707</v>
       </c>
       <c r="D141">
         <v>123456</v>
@@ -2478,10 +2484,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C142">
-        <v>17106800</v>
+        <v>17021804</v>
       </c>
       <c r="D142">
         <v>123456</v>
@@ -2489,10 +2495,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C143">
-        <v>17050278</v>
+        <v>17106800</v>
       </c>
       <c r="D143">
         <v>123456</v>
@@ -2500,10 +2506,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C144">
-        <v>17043069</v>
+        <v>17050278</v>
       </c>
       <c r="D144">
         <v>123456</v>
@@ -2511,10 +2517,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C145">
-        <v>17018820</v>
+        <v>17043069</v>
       </c>
       <c r="D145">
         <v>123456</v>
@@ -2522,10 +2528,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C146">
-        <v>17043026</v>
+        <v>17018820</v>
       </c>
       <c r="D146">
         <v>123456</v>
@@ -2533,10 +2539,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C147">
-        <v>17039150</v>
+        <v>17043026</v>
       </c>
       <c r="D147">
         <v>123456</v>
@@ -2544,10 +2550,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C148">
-        <v>17052823</v>
+        <v>17039150</v>
       </c>
       <c r="D148">
         <v>123456</v>
@@ -2555,10 +2561,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C149">
-        <v>17051746</v>
+        <v>17052823</v>
       </c>
       <c r="D149">
         <v>123456</v>
@@ -2566,10 +2572,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C150">
-        <v>17049253</v>
+        <v>17051746</v>
       </c>
       <c r="D150">
         <v>123456</v>
@@ -2577,12 +2583,23 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C151">
+        <v>17049253</v>
+      </c>
+      <c r="D151">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C151">
+      <c r="C152">
         <v>17107806</v>
       </c>
-      <c r="D151">
+      <c r="D152">
         <v>123456</v>
       </c>
     </row>
